--- a/5prompts_test.xlsx
+++ b/5prompts_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saket\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05EB9094-8D56-4F93-BCA3-FE044E0E5456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC4E22F-3431-4F23-8F05-DF90A70330D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BE762324-EA5E-442D-99DD-339FEE5D6094}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>A portrait photo of a kangaroo wearing an orange hoodie and blue sunglasses standing on the grass in front of the Sydney Opera House holding a sign on the chest that says Welcome Friends, subject: kangaroo, subject detail: wearing orange hoodie, wearing blue sunglasses, subject location: sydney opera house, subject action: holding sign</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>p. cubensis</t>
-  </si>
-  <si>
-    <t>prompt</t>
   </si>
 </sst>
 </file>
@@ -394,41 +391,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25379C45-431A-414D-B53C-B6FE274D1CE6}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
